--- a/平成31年度/04_総会資料/2. 平成31年度 活動報告.xlsx
+++ b/平成31年度/04_総会資料/2. 平成31年度 活動報告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\04_総会資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\04_総会資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
@@ -410,16 +410,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第回くらい　愉快なうまい棒カップ</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -892,11 +882,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(日)</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準優勝</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンユウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第32回見附市内小学生親善ミニバスケットボール大会</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ミツケシナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンゼン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1453,29 +1479,281 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1486,42 +1764,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1533,222 +1775,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2096,256 +2122,260 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
     </row>
     <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="119" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="120"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="119" t="s">
+      <c r="H3" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="120"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="41"/>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="163" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="81"/>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="54"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
-      <c r="B5" s="91"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="7"/>
       <c r="D5" s="82"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="49"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="170" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="171"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="103" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="120"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="105"/>
+      <c r="I6" s="93" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
-      <c r="B7" s="91"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="32"/>
       <c r="D7" s="83"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="106"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
-      <c r="B8" s="91"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="5"/>
       <c r="D8" s="81"/>
-      <c r="E8" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="154"/>
+      <c r="E8" s="166" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="167"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="103" t="s">
+      <c r="H8" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="105"/>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
-      <c r="B9" s="107"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="32"/>
       <c r="D9" s="83"/>
       <c r="E9" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="106"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="170" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="86"/>
       <c r="D10" s="69"/>
-      <c r="E10" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="95" t="s">
+      <c r="E10" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="152"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="110"/>
+      <c r="I10" s="123"/>
     </row>
     <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
-      <c r="B11" s="151"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="87"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="111"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="124"/>
     </row>
     <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
-      <c r="B12" s="151"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="88"/>
       <c r="D12" s="78"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="112"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="125"/>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
-      <c r="B13" s="151"/>
+      <c r="B13" s="171"/>
       <c r="C13" s="5"/>
       <c r="D13" s="81"/>
-      <c r="E13" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="103" t="s">
+      <c r="E13" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="143"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="105"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
-      <c r="B14" s="151"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="7"/>
       <c r="D14" s="82"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="106"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
-      <c r="B15" s="151"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="32"/>
       <c r="D15" s="83"/>
-      <c r="E15" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="162"/>
+      <c r="E15" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="143"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="103" t="s">
+      <c r="H15" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="105"/>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
-      <c r="B16" s="151"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="7"/>
       <c r="D16" s="82"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="163"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="106"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="94"/>
     </row>
     <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="165" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="89"/>
-      <c r="E17" s="170" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="171"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="103" t="s">
+      <c r="E17" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="120"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="105"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
-      <c r="B18" s="91"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="7"/>
       <c r="D18" s="82"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="106"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="94"/>
     </row>
     <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
-      <c r="B19" s="91"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="32"/>
       <c r="D19" s="83"/>
-      <c r="E19" s="155" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="156"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="95" t="s">
+      <c r="E19" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="110"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="110"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
-      <c r="B20" s="91"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="32"/>
       <c r="D20" s="83"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="111"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="124"/>
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
@@ -2373,14 +2403,14 @@
     </row>
     <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
-      <c r="B21" s="91"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="7"/>
       <c r="D21" s="82"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="112"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="125"/>
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="M21" s="63"/>
@@ -2408,18 +2438,18 @@
     </row>
     <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
-      <c r="B22" s="91"/>
+      <c r="B22" s="163"/>
       <c r="C22" s="5"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="155" t="s">
+      <c r="E22" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="156"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="103" t="s">
+      <c r="F22" s="110"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="105"/>
+      <c r="I22" s="93"/>
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="M22" s="63"/>
@@ -2447,14 +2477,14 @@
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="107"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="7"/>
       <c r="D23" s="82"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="106"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="94"/>
       <c r="J23" s="32"/>
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
@@ -2483,15 +2513,15 @@
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="165" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="84"/>
-      <c r="E24" s="138" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="139"/>
+      <c r="E24" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="96"/>
       <c r="G24" s="56"/>
       <c r="H24" s="51" t="s">
         <v>3</v>
@@ -2524,13 +2554,13 @@
     </row>
     <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="91"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="7"/>
       <c r="D25" s="82"/>
-      <c r="E25" s="138" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="139"/>
+      <c r="E25" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="96"/>
       <c r="G25" s="57"/>
       <c r="H25" s="50" t="s">
         <v>30</v>
@@ -2563,18 +2593,18 @@
     </row>
     <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="91"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="5"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="103" t="s">
+      <c r="E26" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="101"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="105"/>
+      <c r="I26" s="93"/>
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="63"/>
@@ -2601,47 +2631,47 @@
       <c r="AH26" s="63"/>
     </row>
     <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="7"/>
       <c r="D27" s="82"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="106"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="152"/>
-      <c r="B28" s="107"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="5"/>
       <c r="D28" s="81"/>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="118"/>
+      <c r="F28" s="169"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="120"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="46">
         <v>31</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="165" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="81"/>
-      <c r="E29" s="140" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="141"/>
-      <c r="G29" s="101"/>
+      <c r="E29" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="114"/>
+      <c r="G29" s="99"/>
       <c r="H29" s="1"/>
       <c r="I29" s="54"/>
     </row>
@@ -2649,12 +2679,12 @@
       <c r="A30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="32"/>
       <c r="D30" s="83"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="136"/>
       <c r="H30" s="61" t="s">
         <v>31</v>
       </c>
@@ -2662,12 +2692,12 @@
     </row>
     <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
-      <c r="B31" s="91"/>
+      <c r="B31" s="163"/>
       <c r="C31" s="32"/>
       <c r="D31" s="83"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="136"/>
       <c r="H31" s="61" t="s">
         <v>3</v>
       </c>
@@ -2675,25 +2705,25 @@
     </row>
     <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
-      <c r="B32" s="91"/>
+      <c r="B32" s="163"/>
       <c r="C32" s="7"/>
       <c r="D32" s="82"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="102"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="100"/>
       <c r="H32" s="3"/>
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="156"/>
-      <c r="G33" s="101"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="110"/>
+      <c r="G33" s="99"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2701,12 +2731,12 @@
     </row>
     <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="102"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="100"/>
       <c r="H34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2714,15 +2744,15 @@
     </row>
     <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="165" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="84"/>
-      <c r="E35" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="118"/>
+      <c r="E35" s="168" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="169"/>
       <c r="G35" s="6"/>
       <c r="H35" s="1" t="s">
         <v>3</v>
@@ -2731,13 +2761,13 @@
     </row>
     <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
-      <c r="B36" s="91"/>
+      <c r="B36" s="163"/>
       <c r="C36" s="5"/>
       <c r="D36" s="81"/>
-      <c r="E36" s="155" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="156"/>
+      <c r="E36" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="110"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2746,11 +2776,11 @@
     </row>
     <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
-      <c r="B37" s="91"/>
+      <c r="B37" s="163"/>
       <c r="C37" s="7"/>
       <c r="D37" s="82"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="8"/>
       <c r="H37" s="3" t="s">
         <v>4</v>
@@ -2759,39 +2789,39 @@
     </row>
     <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
-      <c r="B38" s="91"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="32"/>
       <c r="D38" s="83"/>
-      <c r="E38" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="114"/>
+      <c r="E38" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="186"/>
       <c r="G38" s="38"/>
-      <c r="H38" s="103" t="s">
+      <c r="H38" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="105"/>
+      <c r="I38" s="93"/>
     </row>
     <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
-      <c r="B39" s="91"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="32"/>
       <c r="D39" s="83"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="116"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="188"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="106"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="94"/>
     </row>
     <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
-      <c r="B40" s="91"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="80"/>
       <c r="D40" s="84"/>
-      <c r="E40" s="177" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="178"/>
+      <c r="E40" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="98"/>
       <c r="G40" s="39"/>
       <c r="H40" s="53" t="s">
         <v>30</v>
@@ -2800,41 +2830,41 @@
     </row>
     <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
-      <c r="B41" s="91"/>
+      <c r="B41" s="163"/>
       <c r="C41" s="5"/>
       <c r="D41" s="81"/>
-      <c r="E41" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="130"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="103" t="s">
+      <c r="E41" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="101"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="105"/>
+      <c r="I41" s="93"/>
     </row>
     <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
-      <c r="B42" s="91"/>
+      <c r="B42" s="163"/>
       <c r="C42" s="7"/>
       <c r="D42" s="82"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="106"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="94"/>
     </row>
     <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="42"/>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="165" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="81"/>
-      <c r="E43" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="130"/>
+      <c r="E43" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="101"/>
       <c r="G43" s="6"/>
       <c r="H43" s="15" t="s">
         <v>13</v>
@@ -2843,11 +2873,11 @@
     </row>
     <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="42"/>
-      <c r="B44" s="91"/>
+      <c r="B44" s="163"/>
       <c r="C44" s="7"/>
       <c r="D44" s="82"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="131"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="102"/>
       <c r="G44" s="8"/>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2856,89 +2886,89 @@
     </row>
     <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
-      <c r="B45" s="91"/>
+      <c r="B45" s="163"/>
       <c r="C45" s="5"/>
       <c r="D45" s="81"/>
-      <c r="E45" s="170" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45" s="171"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="103" t="s">
+      <c r="E45" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="120"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="105"/>
+      <c r="I45" s="93"/>
     </row>
     <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
-      <c r="B46" s="91"/>
+      <c r="B46" s="163"/>
       <c r="C46" s="7"/>
       <c r="D46" s="83"/>
-      <c r="E46" s="172"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="106"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="94"/>
     </row>
     <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
-      <c r="B47" s="91"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="5"/>
       <c r="D47" s="81"/>
-      <c r="E47" s="132" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="174"/>
-      <c r="H47" s="103" t="s">
+      <c r="E47" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="106"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="105"/>
+      <c r="I47" s="93"/>
     </row>
     <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
-      <c r="B48" s="91"/>
+      <c r="B48" s="163"/>
       <c r="C48" s="32"/>
       <c r="D48" s="82"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="188"/>
-      <c r="G48" s="175"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="106"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="94"/>
     </row>
     <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="42"/>
-      <c r="B49" s="91"/>
+      <c r="B49" s="163"/>
       <c r="C49" s="5"/>
       <c r="D49" s="81"/>
-      <c r="E49" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="130"/>
+      <c r="E49" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="101"/>
       <c r="G49" s="55"/>
-      <c r="H49" s="103" t="s">
+      <c r="H49" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="105"/>
+      <c r="I49" s="93"/>
     </row>
     <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="42"/>
-      <c r="B50" s="91"/>
+      <c r="B50" s="163"/>
       <c r="C50" s="32"/>
       <c r="D50" s="82"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="131"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="102"/>
       <c r="G50" s="55"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="106"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="94"/>
     </row>
     <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="42"/>
-      <c r="B51" s="107"/>
+      <c r="B51" s="164"/>
       <c r="C51" s="79"/>
       <c r="D51" s="84"/>
       <c r="E51" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" s="65"/>
       <c r="G51" s="10"/>
@@ -2949,13 +2979,13 @@
     </row>
     <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="42"/>
-      <c r="B52" s="90" t="s">
+      <c r="B52" s="165" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52" s="84"/>
       <c r="E52" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="52"/>
       <c r="G52" s="6"/>
@@ -2966,106 +2996,106 @@
     </row>
     <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="42"/>
-      <c r="B53" s="91"/>
+      <c r="B53" s="163"/>
       <c r="C53" s="5"/>
       <c r="D53" s="81"/>
-      <c r="E53" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="130"/>
+      <c r="E53" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="101"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="103" t="s">
+      <c r="H53" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="105"/>
+      <c r="I53" s="93"/>
     </row>
     <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="42"/>
-      <c r="B54" s="91"/>
+      <c r="B54" s="163"/>
       <c r="C54" s="7"/>
       <c r="D54" s="82"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="131"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="102"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="106"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="94"/>
     </row>
     <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
-      <c r="B55" s="91"/>
+      <c r="B55" s="163"/>
       <c r="C55" s="5"/>
       <c r="D55" s="81"/>
-      <c r="E55" s="181" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="182"/>
+      <c r="E55" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="127"/>
       <c r="G55" s="38"/>
-      <c r="H55" s="95" t="s">
+      <c r="H55" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="I55" s="110"/>
+      <c r="I55" s="123"/>
     </row>
     <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
-      <c r="B56" s="91"/>
+      <c r="B56" s="163"/>
       <c r="C56" s="32"/>
       <c r="D56" s="83"/>
-      <c r="E56" s="183"/>
-      <c r="F56" s="184"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="129"/>
       <c r="G56" s="39"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="111"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="124"/>
     </row>
     <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
-      <c r="B57" s="91"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="7"/>
       <c r="D57" s="82"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="186"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="131"/>
       <c r="G57" s="40"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="112"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="125"/>
     </row>
     <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="42"/>
-      <c r="B58" s="91"/>
+      <c r="B58" s="163"/>
       <c r="C58" s="5"/>
       <c r="D58" s="81"/>
-      <c r="E58" s="103" t="s">
-        <v>70</v>
+      <c r="E58" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="F58" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G58" s="174"/>
-      <c r="H58" s="103" t="s">
+      <c r="G58" s="103"/>
+      <c r="H58" s="91" t="s">
         <v>3</v>
       </c>
       <c r="I58" s="54"/>
     </row>
     <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="42"/>
-      <c r="B59" s="91"/>
+      <c r="B59" s="163"/>
       <c r="C59" s="7"/>
       <c r="D59" s="82"/>
-      <c r="E59" s="104"/>
+      <c r="E59" s="92"/>
       <c r="F59" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="175"/>
-      <c r="H59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="92"/>
       <c r="I59" s="49"/>
     </row>
     <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="42"/>
-      <c r="B60" s="107"/>
+      <c r="B60" s="164"/>
       <c r="C60" s="5"/>
       <c r="D60" s="81"/>
-      <c r="E60" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="109"/>
+      <c r="E60" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="181"/>
       <c r="G60" s="38"/>
       <c r="H60" s="1" t="s">
         <v>13</v>
@@ -3074,71 +3104,71 @@
     </row>
     <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="42"/>
-      <c r="B61" s="90" t="s">
+      <c r="B61" s="165" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="81"/>
-      <c r="E61" s="170" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="171"/>
+      <c r="E61" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="120"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="103" t="s">
+      <c r="H61" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="105"/>
+      <c r="I61" s="93"/>
     </row>
     <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="42"/>
-      <c r="B62" s="91"/>
+      <c r="B62" s="163"/>
       <c r="C62" s="7"/>
       <c r="D62" s="82"/>
-      <c r="E62" s="104" t="s">
+      <c r="E62" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="131"/>
+      <c r="F62" s="102"/>
       <c r="G62" s="57"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="106"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="94"/>
     </row>
     <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="42"/>
-      <c r="B63" s="91"/>
+      <c r="B63" s="163"/>
       <c r="C63" s="5"/>
       <c r="D63" s="81"/>
-      <c r="E63" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="133"/>
+      <c r="E63" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="106"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="103" t="s">
+      <c r="H63" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="I63" s="105"/>
+      <c r="I63" s="93"/>
     </row>
     <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="42"/>
-      <c r="B64" s="107"/>
+      <c r="B64" s="164"/>
       <c r="C64" s="7"/>
       <c r="D64" s="82"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="135"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="108"/>
       <c r="G64" s="60"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="137"/>
+      <c r="H64" s="178"/>
+      <c r="I64" s="179"/>
     </row>
     <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
-      <c r="B65" s="90" t="s">
+      <c r="B65" s="165" t="s">
         <v>26</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="84"/>
-      <c r="E65" s="138" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="139"/>
+      <c r="E65" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="96"/>
       <c r="G65" s="58"/>
       <c r="H65" s="59" t="s">
         <v>30</v>
@@ -3147,14 +3177,14 @@
     </row>
     <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="42"/>
-      <c r="B66" s="91"/>
+      <c r="B66" s="163"/>
       <c r="C66" s="5"/>
       <c r="D66" s="81"/>
-      <c r="E66" s="132" t="s">
+      <c r="E66" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="133"/>
-      <c r="G66" s="101"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="99"/>
       <c r="H66" s="15" t="s">
         <v>13</v>
       </c>
@@ -3162,12 +3192,12 @@
     </row>
     <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="42"/>
-      <c r="B67" s="91"/>
+      <c r="B67" s="163"/>
       <c r="C67" s="7"/>
       <c r="D67" s="82"/>
-      <c r="E67" s="134"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="102"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="100"/>
       <c r="H67" s="3" t="s">
         <v>36</v>
       </c>
@@ -3175,24 +3205,24 @@
     </row>
     <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="42"/>
-      <c r="B68" s="91"/>
+      <c r="B68" s="163"/>
       <c r="C68" s="5"/>
       <c r="D68" s="81"/>
-      <c r="E68" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="122"/>
+      <c r="E68" s="172" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="173"/>
       <c r="G68" s="74"/>
       <c r="H68" s="66"/>
       <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="42"/>
-      <c r="B69" s="91"/>
+      <c r="B69" s="163"/>
       <c r="C69" s="32"/>
       <c r="D69" s="83"/>
-      <c r="E69" s="123"/>
-      <c r="F69" s="124"/>
+      <c r="E69" s="174"/>
+      <c r="F69" s="175"/>
       <c r="G69" s="39"/>
       <c r="H69" s="72" t="s">
         <v>39</v>
@@ -3201,11 +3231,11 @@
     </row>
     <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="42"/>
-      <c r="B70" s="91"/>
+      <c r="B70" s="163"/>
       <c r="C70" s="32"/>
       <c r="D70" s="83"/>
-      <c r="E70" s="123"/>
-      <c r="F70" s="124"/>
+      <c r="E70" s="174"/>
+      <c r="F70" s="175"/>
       <c r="G70" s="39"/>
       <c r="H70" s="72" t="s">
         <v>37</v>
@@ -3214,11 +3244,11 @@
     </row>
     <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="42"/>
-      <c r="B71" s="107"/>
+      <c r="B71" s="164"/>
       <c r="C71" s="32"/>
       <c r="D71" s="83"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="126"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="177"/>
       <c r="G71" s="40"/>
       <c r="H71" s="72"/>
       <c r="I71" s="75"/>
@@ -3247,87 +3277,87 @@
     </row>
     <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="42"/>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="165" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="81"/>
-      <c r="E72" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="141"/>
+      <c r="E72" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" s="114"/>
       <c r="G72" s="76"/>
-      <c r="H72" s="103" t="s">
+      <c r="H72" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="105"/>
+      <c r="I72" s="93"/>
     </row>
     <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="42"/>
-      <c r="B73" s="91"/>
+      <c r="B73" s="163"/>
       <c r="C73" s="7"/>
       <c r="D73" s="82"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="143"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="118"/>
       <c r="G73" s="77"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="106"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="94"/>
     </row>
     <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="42"/>
-      <c r="B74" s="91"/>
+      <c r="B74" s="163"/>
       <c r="C74" s="5"/>
       <c r="D74" s="81"/>
-      <c r="E74" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="130"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="103" t="s">
+      <c r="E74" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="101"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="105"/>
+      <c r="I74" s="93"/>
     </row>
     <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="42"/>
-      <c r="B75" s="91"/>
+      <c r="B75" s="163"/>
       <c r="C75" s="32"/>
       <c r="D75" s="83"/>
-      <c r="E75" s="104"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="106"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="94"/>
     </row>
     <row r="76" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="42"/>
-      <c r="B76" s="91"/>
+      <c r="B76" s="163"/>
       <c r="C76" s="5"/>
       <c r="D76" s="81"/>
-      <c r="E76" s="103" t="s">
-        <v>78</v>
-      </c>
-      <c r="F76" s="130"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="103" t="s">
+      <c r="E76" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="101"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="105"/>
+      <c r="I76" s="93"/>
     </row>
     <row r="77" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="42"/>
-      <c r="B77" s="91"/>
+      <c r="B77" s="163"/>
       <c r="C77" s="32"/>
       <c r="D77" s="83"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="131"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="106"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="94"/>
     </row>
     <row r="78" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="42"/>
-      <c r="B78" s="91"/>
+      <c r="B78" s="163"/>
       <c r="C78" s="79"/>
       <c r="D78" s="84"/>
       <c r="E78" s="36" t="s">
@@ -3335,20 +3365,20 @@
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="119" t="s">
+      <c r="H78" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="120"/>
+      <c r="I78" s="135"/>
     </row>
     <row r="79" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="43"/>
-      <c r="B79" s="107"/>
+      <c r="B79" s="164"/>
       <c r="C79" s="32"/>
       <c r="D79" s="83"/>
-      <c r="E79" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="109"/>
+      <c r="E79" s="180" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="181"/>
       <c r="G79" s="8"/>
       <c r="H79" s="67" t="s">
         <v>17</v>
@@ -3356,47 +3386,47 @@
       <c r="I79" s="71"/>
     </row>
     <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="152" t="s">
+      <c r="A80" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="165" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="81"/>
-      <c r="E80" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="127"/>
-      <c r="G80" s="92"/>
-      <c r="H80" s="95" t="s">
+      <c r="E80" s="151" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="152"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="I80" s="98"/>
+      <c r="I80" s="182"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="152"/>
-      <c r="B81" s="91"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="163"/>
       <c r="C81" s="32"/>
       <c r="D81" s="83"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="128"/>
-      <c r="G81" s="93"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="99"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="153"/>
+      <c r="I81" s="183"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="44">
         <v>32</v>
       </c>
-      <c r="B82" s="91"/>
+      <c r="B82" s="163"/>
       <c r="C82" s="7"/>
       <c r="D82" s="82"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="94"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="100"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="156"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="155"/>
+      <c r="I82" s="184"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
@@ -3412,10 +3442,10 @@
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="10"/>
-      <c r="H83" s="119" t="s">
+      <c r="H83" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="I83" s="120"/>
+      <c r="I83" s="135"/>
     </row>
     <row r="84" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="22"/>
@@ -3488,7 +3518,110 @@
     </row>
     <row r="93" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="127">
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="E68:F71"/>
+    <mergeCell ref="E80:F82"/>
+    <mergeCell ref="E74:F75"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E19:F21"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="E10:F12"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="E55:F57"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="I38:I39"/>
@@ -3513,107 +3646,6 @@
     <mergeCell ref="E41:F42"/>
     <mergeCell ref="E45:F46"/>
     <mergeCell ref="E49:F50"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E10:F12"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E68:F71"/>
-    <mergeCell ref="E80:F82"/>
-    <mergeCell ref="E74:F75"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="E35:F35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/平成31年度/04_総会資料/2. 平成31年度 活動報告.xlsx
+++ b/平成31年度/04_総会資料/2. 平成31年度 活動報告.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$88</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
@@ -40,13 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ウイッチーズ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,43 +426,6 @@
     <t>第回　グローイングカップミニバスケットボール大会</t>
     <rPh sb="22" eb="24">
       <t>タイカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第回  市民スポーツ祭バスケットボール大会　　　　　　　　　　　　　　第回  長岡市ミニバスケットボール大会　　（新人戦）</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シミン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ナガオカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>シンジンセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -914,6 +870,90 @@
       <t>シンゼン</t>
     </rPh>
     <rPh sb="23" eb="25">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(月)</t>
+    <rPh sb="1" eb="2">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第65回  市民スポーツ祭バスケットボール大会　　　　　　　　　　　　　　第31回  長岡市ミニバスケットボール大会　　（新人戦）</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シミン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナガオカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>シンジンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">準優勝
+</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンユウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">参加
+</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(土)</t>
+    <rPh sb="1" eb="2">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3回サクラちゃんカップミニバスケットボール大会</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>タイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1208,7 +1248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,9 +1342,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1470,34 +1507,307 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,275 +1816,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2083,9 +2132,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2105,7 +2156,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2122,1349 +2173,1373 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="134" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="135"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="163" t="s">
-        <v>22</v>
+      <c r="A4" s="40"/>
+      <c r="B4" s="92" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="93"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="168" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="169"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="107"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="94"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="108"/>
     </row>
     <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="163"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="5">
         <v>10</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="F6" s="173"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="85">
+        <v>11</v>
+      </c>
+      <c r="D8" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="93" t="s">
+      <c r="E8" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="112" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="86">
+        <v>17</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="114"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="159" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="94"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="166" t="s">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="164"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="31">
+        <v>3</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="114"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="153" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="154"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="107"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="167"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="33" t="s">
+      <c r="F13" s="89"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="94"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="170" t="s">
+      <c r="F14" s="164"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="107"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="108"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="164"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="151" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="152"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="123"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="124"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="42"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="125"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="91" t="s">
+      <c r="I16" s="107"/>
+    </row>
+    <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="93"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="91" t="s">
+      <c r="F18" s="173"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="107"/>
+    </row>
+    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="41"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="108"/>
+    </row>
+    <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="143"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="93"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="93"/>
-    </row>
-    <row r="18" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="123"/>
-    </row>
-    <row r="20" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="124"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="63"/>
-      <c r="X20" s="63"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="112"/>
     </row>
     <row r="21" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="82"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="125"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="113"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
     </row>
     <row r="22" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="81"/>
-      <c r="E22" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="93"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="114"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
     </row>
     <row r="23" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="156"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="107"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
     </row>
     <row r="24" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
-      <c r="B24" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="96"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
     </row>
     <row r="25" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="96"/>
-      <c r="G25" s="57"/>
+      <c r="B25" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="141"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="49"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="63"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
     </row>
     <row r="26" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="81"/>
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="141"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+    </row>
+    <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="132"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="107"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+    </row>
+    <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="93"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="108"/>
+    </row>
+    <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="152"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="120"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="122"/>
+    </row>
+    <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="45">
+        <v>31</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="143"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="53"/>
+    </row>
+    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="93"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="47"/>
+    </row>
+    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="41"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="48"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="41"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="101"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="91" t="s">
+      <c r="F34" s="156"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="53"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="41"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="63"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="63"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="63"/>
-    </row>
-    <row r="27" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="94"/>
-    </row>
-    <row r="28" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="90"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="168" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="135"/>
-    </row>
-    <row r="29" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="46">
-        <v>31</v>
-      </c>
-      <c r="B29" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="113" t="s">
+      <c r="I35" s="48"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="41"/>
+      <c r="B36" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="114"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="48"/>
-    </row>
-    <row r="31" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="42"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="48"/>
-    </row>
-    <row r="32" spans="1:34" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="42"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="49"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="109" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="110"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="54"/>
-    </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="42"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="49"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="42"/>
-      <c r="B35" s="165" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="168" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="169"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="54"/>
-    </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="42"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="110"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="6"/>
       <c r="H36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="41"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="156"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="41"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="41"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="116"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="107"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="41"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="108"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="41"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="187" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="188"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="47"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="41"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="132"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="107"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="41"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="108"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="41"/>
+      <c r="B44" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="132"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="53"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="41"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I45" s="48"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="41"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="172" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="173"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="107"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="41"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="108"/>
+    </row>
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="41"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="135"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="107"/>
+    </row>
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="41"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="185"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="108"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="41"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="132"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I50" s="107"/>
+    </row>
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="41"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="108"/>
+    </row>
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="41"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="64"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="41"/>
+      <c r="B53" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="54"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="42"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="3" t="s">
+      <c r="C53" s="78"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="51"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="53"/>
+    </row>
+    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="41"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="132"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="107"/>
+    </row>
+    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="41"/>
+      <c r="B55" s="93"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="108"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="41"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="176" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="177"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="112"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="41"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="113"/>
+    </row>
+    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="41"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="180"/>
+      <c r="F58" s="181"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="114"/>
+    </row>
+    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="41"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="184"/>
+      <c r="H59" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="53"/>
+    </row>
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="41"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="185"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="48"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="41"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="111"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="41"/>
+      <c r="B62" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="173"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="107"/>
+    </row>
+    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="41"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="133"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="108"/>
+    </row>
+    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="41"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="135"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I64" s="107"/>
+    </row>
+    <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="41"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="139"/>
+    </row>
+    <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="41"/>
+      <c r="B66" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="141"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="67"/>
+    </row>
+    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="41"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="135"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="41"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="41"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="124"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="61"/>
+    </row>
+    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="41"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="72"/>
+    </row>
+    <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="41"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="72"/>
+    </row>
+    <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="41"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="127"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="74"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="62"/>
+      <c r="U72" s="62"/>
+      <c r="V72" s="62"/>
+      <c r="W72" s="62"/>
+      <c r="X72" s="62"/>
+      <c r="Y72" s="62"/>
+      <c r="Z72" s="62"/>
+      <c r="AA72" s="62"/>
+      <c r="AB72" s="62"/>
+      <c r="AC72" s="62"/>
+      <c r="AD72" s="62"/>
+      <c r="AE72" s="62"/>
+      <c r="AF72" s="62"/>
+      <c r="AG72" s="62"/>
+    </row>
+    <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="41"/>
+      <c r="B73" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="142" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="143"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="107"/>
+    </row>
+    <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="41"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="145"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="108"/>
+    </row>
+    <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="41"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="132"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="107"/>
+    </row>
+    <row r="76" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="41"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="133"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="108"/>
+    </row>
+    <row r="77" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="41"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="132"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="107"/>
+    </row>
+    <row r="78" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="41"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="82"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="108"/>
+    </row>
+    <row r="79" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="41"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="122"/>
+    </row>
+    <row r="80" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="42"/>
+      <c r="B80" s="109"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="82"/>
+      <c r="E80" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="111"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="70"/>
+    </row>
+    <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="49"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="42"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="186"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="93"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="42"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="94"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="42"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="42"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="101"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="93"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="94"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="165" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="49"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="120"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="93"/>
-    </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="94"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="42"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="93"/>
-    </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="42"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="94"/>
-    </row>
-    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="42"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="101"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="93"/>
-    </row>
-    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="94"/>
-    </row>
-    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="42"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="70"/>
-    </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="42"/>
-      <c r="B52" s="165" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="129"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="100"/>
+    </row>
+    <row r="82" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="152"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="130"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="101"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="43">
+        <v>32</v>
+      </c>
+      <c r="B83" s="93"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="102"/>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="78"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="54"/>
-    </row>
-    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="42"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="101"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="93"/>
-    </row>
-    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="42"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="94"/>
-    </row>
-    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="42"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="127"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="I55" s="123"/>
-    </row>
-    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="124"/>
-    </row>
-    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="42"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="125"/>
-    </row>
-    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="42"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" s="103"/>
-      <c r="H58" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="54"/>
-    </row>
-    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="42"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="104"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="49"/>
-    </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="42"/>
-      <c r="B60" s="164"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="180" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="181"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="70"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="42"/>
-      <c r="B61" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="120"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="93"/>
-    </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="42"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="102"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="92"/>
-      <c r="I62" s="94"/>
-    </row>
-    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="106"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I63" s="93"/>
-    </row>
-    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="42"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="179"/>
-    </row>
-    <row r="65" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="42"/>
-      <c r="B65" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" s="96"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="68"/>
-    </row>
-    <row r="66" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="F66" s="106"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="34"/>
-    </row>
-    <row r="67" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="42"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="35"/>
-    </row>
-    <row r="68" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="42"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="173"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="62"/>
-    </row>
-    <row r="69" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="174"/>
-      <c r="F69" s="175"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="73"/>
-    </row>
-    <row r="70" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="42"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="174"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="39"/>
-      <c r="H70" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="I70" s="73"/>
-    </row>
-    <row r="71" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="42"/>
-      <c r="B71" s="164"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="177"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="72"/>
-      <c r="I71" s="75"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
-      <c r="U71" s="63"/>
-      <c r="V71" s="63"/>
-      <c r="W71" s="63"/>
-      <c r="X71" s="63"/>
-      <c r="Y71" s="63"/>
-      <c r="Z71" s="63"/>
-      <c r="AA71" s="63"/>
-      <c r="AB71" s="63"/>
-      <c r="AC71" s="63"/>
-      <c r="AD71" s="63"/>
-      <c r="AE71" s="63"/>
-      <c r="AF71" s="63"/>
-      <c r="AG71" s="63"/>
-    </row>
-    <row r="72" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
-      <c r="B72" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="113" t="s">
-        <v>75</v>
-      </c>
-      <c r="F72" s="114"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" s="93"/>
-    </row>
-    <row r="73" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="42"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="94"/>
-    </row>
-    <row r="74" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="81"/>
-      <c r="E74" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" s="101"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="93"/>
-    </row>
-    <row r="75" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="94"/>
-    </row>
-    <row r="76" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="42"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="101"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="93"/>
-    </row>
-    <row r="77" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="42"/>
-      <c r="B77" s="163"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="92"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="94"/>
-    </row>
-    <row r="78" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="135"/>
-    </row>
-    <row r="79" spans="1:33" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
-      <c r="B79" s="164"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="83"/>
-      <c r="E79" s="180" t="s">
-        <v>78</v>
-      </c>
-      <c r="F79" s="181"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" s="71"/>
-    </row>
-    <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="81"/>
-      <c r="E80" s="151" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" s="152"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="I80" s="182"/>
-    </row>
-    <row r="81" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="90"/>
-      <c r="B81" s="163"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="138"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="183"/>
-    </row>
-    <row r="82" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="44">
-        <v>32</v>
-      </c>
-      <c r="B82" s="163"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="155"/>
-      <c r="F82" s="156"/>
-      <c r="G82" s="139"/>
-      <c r="H82" s="155"/>
-      <c r="I82" s="184"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="79"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="134" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="135"/>
-    </row>
-    <row r="84" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="22"/>
+      <c r="I84" s="122"/>
     </row>
     <row r="85" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="25"/>
-      <c r="F85" s="23"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="22"/>
     </row>
@@ -3480,12 +3555,13 @@
       <c r="I86" s="22"/>
     </row>
     <row r="87" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
+      <c r="B87" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="23"/>
+      <c r="F87" s="23"/>
       <c r="H87" s="23"/>
       <c r="I87" s="22"/>
     </row>
@@ -3501,6 +3577,11 @@
     </row>
     <row r="89" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="23"/>
       <c r="H89" s="23"/>
       <c r="I89" s="22"/>
     </row>
@@ -3511,141 +3592,150 @@
     </row>
     <row r="91" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="23"/>
-      <c r="N91" s="29"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="22"/>
     </row>
     <row r="92" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N92" s="30"/>
-    </row>
-    <row r="93" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B92" s="23"/>
+      <c r="N92" s="29"/>
+    </row>
+    <row r="93" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N93" s="30"/>
+    </row>
+    <row r="94" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="E68:F71"/>
-    <mergeCell ref="E80:F82"/>
-    <mergeCell ref="E74:F75"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+  <mergeCells count="131">
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="E67:F68"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="E30:F33"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="G30:G33"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E19:F21"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G20:G22"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="E10:F12"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="E69:F72"/>
+    <mergeCell ref="E81:F83"/>
+    <mergeCell ref="E75:F76"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="E77:F78"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B72"/>
+    <mergeCell ref="E64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B44:B52"/>
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="E55:F57"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="E29:F32"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="B53:B61"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="E56:F58"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
